--- a/data/saku_data.xlsx
+++ b/data/saku_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +469,23 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45445</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>salary</t>
-        </is>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>June salary</t>
+          <t>andrew</t>
         </is>
       </c>
     </row>
@@ -499,101 +493,27 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45446</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>expense</t>
+          <t>Expense</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>makan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20000</v>
+        <v>2000000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxi fare</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45447</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>expense</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Movie tickets</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45448</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>freelance</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>120000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Project payment</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-17</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>andrew</t>
+          <t>makan gondes</t>
         </is>
       </c>
     </row>

--- a/data/saku_data.xlsx
+++ b/data/saku_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
